--- a/Output/Drive/8. Justicia.xlsx
+++ b/Output/Drive/8. Justicia.xlsx
@@ -12,14 +12,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t xml:space="preserve">CVE_MUN</t>
   </si>
   <si>
-    <t xml:space="preserve">Municipio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Centros Penitenciarios</t>
   </si>
   <si>
@@ -38,505 +35,253 @@
     <t xml:space="preserve">13001</t>
   </si>
   <si>
-    <t xml:space="preserve">Acatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13002</t>
   </si>
   <si>
-    <t xml:space="preserve">Acaxochitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13003</t>
   </si>
   <si>
-    <t xml:space="preserve">Actopan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13004</t>
   </si>
   <si>
-    <t xml:space="preserve">Agua Blanca de Iturbide</t>
-  </si>
-  <si>
     <t xml:space="preserve">13005</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajacuba</t>
-  </si>
-  <si>
     <t xml:space="preserve">13006</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfajayucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13007</t>
   </si>
   <si>
-    <t xml:space="preserve">Almoloya</t>
-  </si>
-  <si>
     <t xml:space="preserve">13008</t>
   </si>
   <si>
-    <t xml:space="preserve">Apan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13009</t>
   </si>
   <si>
-    <t xml:space="preserve">El Arenal</t>
-  </si>
-  <si>
     <t xml:space="preserve">13010</t>
   </si>
   <si>
-    <t xml:space="preserve">Atitalaquia</t>
-  </si>
-  <si>
     <t xml:space="preserve">13011</t>
   </si>
   <si>
-    <t xml:space="preserve">Atlapexco</t>
-  </si>
-  <si>
     <t xml:space="preserve">13012</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco el Grande</t>
-  </si>
-  <si>
     <t xml:space="preserve">13013</t>
   </si>
   <si>
-    <t xml:space="preserve">Atotonilco de Tula</t>
-  </si>
-  <si>
     <t xml:space="preserve">13014</t>
   </si>
   <si>
-    <t xml:space="preserve">Calnali</t>
-  </si>
-  <si>
     <t xml:space="preserve">13015</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardonal</t>
-  </si>
-  <si>
     <t xml:space="preserve">13016</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuautepec de Hinojosa</t>
-  </si>
-  <si>
     <t xml:space="preserve">13017</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapantongo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13018</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapulhuacán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13019</t>
   </si>
   <si>
-    <t xml:space="preserve">Chilcuautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13020</t>
   </si>
   <si>
-    <t xml:space="preserve">Eloxochitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13021</t>
   </si>
   <si>
-    <t xml:space="preserve">Emiliano Zapata</t>
-  </si>
-  <si>
     <t xml:space="preserve">13022</t>
   </si>
   <si>
-    <t xml:space="preserve">Epazoyucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13023</t>
   </si>
   <si>
-    <t xml:space="preserve">Francisco I. Madero</t>
-  </si>
-  <si>
     <t xml:space="preserve">13024</t>
   </si>
   <si>
-    <t xml:space="preserve">Huasca de Ocampo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13025</t>
   </si>
   <si>
-    <t xml:space="preserve">Huautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13026</t>
   </si>
   <si>
-    <t xml:space="preserve">Huazalingo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13027</t>
   </si>
   <si>
-    <t xml:space="preserve">Huehuetla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13028</t>
   </si>
   <si>
-    <t xml:space="preserve">Huejutla de Reyes</t>
-  </si>
-  <si>
     <t xml:space="preserve">13029</t>
   </si>
   <si>
-    <t xml:space="preserve">Huichapan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13030</t>
   </si>
   <si>
-    <t xml:space="preserve">Ixmiquilpan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13031</t>
   </si>
   <si>
-    <t xml:space="preserve">Jacala de Ledezma</t>
-  </si>
-  <si>
     <t xml:space="preserve">13032</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaltocán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13033</t>
   </si>
   <si>
-    <t xml:space="preserve">Juárez Hidalgo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13034</t>
   </si>
   <si>
-    <t xml:space="preserve">Lolotla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13035</t>
   </si>
   <si>
-    <t xml:space="preserve">Metepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">13036</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Metzquititlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13037</t>
   </si>
   <si>
-    <t xml:space="preserve">Metztitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13038</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Chico</t>
-  </si>
-  <si>
     <t xml:space="preserve">13039</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral del Monte</t>
-  </si>
-  <si>
     <t xml:space="preserve">13040</t>
   </si>
   <si>
-    <t xml:space="preserve">La Misión</t>
-  </si>
-  <si>
     <t xml:space="preserve">13041</t>
   </si>
   <si>
-    <t xml:space="preserve">Mixquiahuala de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">13042</t>
   </si>
   <si>
-    <t xml:space="preserve">Molango de Escamilla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13043</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás Flores</t>
-  </si>
-  <si>
     <t xml:space="preserve">13044</t>
   </si>
   <si>
-    <t xml:space="preserve">Nopala de Villagrán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13045</t>
   </si>
   <si>
-    <t xml:space="preserve">Omitlán de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">13046</t>
   </si>
   <si>
-    <t xml:space="preserve">San Felipe Orizatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13047</t>
   </si>
   <si>
-    <t xml:space="preserve">Pacula</t>
-  </si>
-  <si>
     <t xml:space="preserve">13048</t>
   </si>
   <si>
-    <t xml:space="preserve">Pachuca de Soto</t>
-  </si>
-  <si>
     <t xml:space="preserve">13049</t>
   </si>
   <si>
-    <t xml:space="preserve">Pisaflores</t>
-  </si>
-  <si>
     <t xml:space="preserve">13050</t>
   </si>
   <si>
-    <t xml:space="preserve">Progreso de Obregón</t>
-  </si>
-  <si>
     <t xml:space="preserve">13051</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineral de la Reforma</t>
-  </si>
-  <si>
     <t xml:space="preserve">13052</t>
   </si>
   <si>
-    <t xml:space="preserve">San Agustín Tlaxiaca</t>
-  </si>
-  <si>
     <t xml:space="preserve">13053</t>
   </si>
   <si>
-    <t xml:space="preserve">San Bartolo Tutotepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">13054</t>
   </si>
   <si>
-    <t xml:space="preserve">San Salvador</t>
-  </si>
-  <si>
     <t xml:space="preserve">13055</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago de Anaya</t>
-  </si>
-  <si>
     <t xml:space="preserve">13056</t>
   </si>
   <si>
-    <t xml:space="preserve">Santiago Tulantepec de Lugo Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">13057</t>
   </si>
   <si>
-    <t xml:space="preserve">Singuilucan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13058</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasquillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13059</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecozautla</t>
-  </si>
-  <si>
     <t xml:space="preserve">13060</t>
   </si>
   <si>
-    <t xml:space="preserve">Tenango de Doria</t>
-  </si>
-  <si>
     <t xml:space="preserve">13061</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeapulco</t>
-  </si>
-  <si>
     <t xml:space="preserve">13062</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepehuacán de Guerrero</t>
-  </si>
-  <si>
     <t xml:space="preserve">13063</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepeji del Río de Ocampo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13064</t>
   </si>
   <si>
-    <t xml:space="preserve">Tepetitlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13065</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetepango</t>
-  </si>
-  <si>
     <t xml:space="preserve">13066</t>
   </si>
   <si>
-    <t xml:space="preserve">Villa de Tezontepec</t>
-  </si>
-  <si>
     <t xml:space="preserve">13067</t>
   </si>
   <si>
-    <t xml:space="preserve">Tezontepec de Aldama</t>
-  </si>
-  <si>
     <t xml:space="preserve">13068</t>
   </si>
   <si>
-    <t xml:space="preserve">Tianguistengo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13069</t>
   </si>
   <si>
-    <t xml:space="preserve">Tizayuca</t>
-  </si>
-  <si>
     <t xml:space="preserve">13070</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuelilpan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13071</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlahuiltepa</t>
-  </si>
-  <si>
     <t xml:space="preserve">13072</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanalapa</t>
-  </si>
-  <si>
     <t xml:space="preserve">13073</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlanchinol</t>
-  </si>
-  <si>
     <t xml:space="preserve">13074</t>
   </si>
   <si>
-    <t xml:space="preserve">Tlaxcoapan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13075</t>
   </si>
   <si>
-    <t xml:space="preserve">Tolcayuca</t>
-  </si>
-  <si>
     <t xml:space="preserve">13076</t>
   </si>
   <si>
-    <t xml:space="preserve">Tula de Allende</t>
-  </si>
-  <si>
     <t xml:space="preserve">13077</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulancingo de Bravo</t>
-  </si>
-  <si>
     <t xml:space="preserve">13078</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochiatipan</t>
-  </si>
-  <si>
     <t xml:space="preserve">13079</t>
   </si>
   <si>
-    <t xml:space="preserve">Xochicoatlán</t>
-  </si>
-  <si>
     <t xml:space="preserve">13080</t>
   </si>
   <si>
-    <t xml:space="preserve">Yahualica</t>
-  </si>
-  <si>
     <t xml:space="preserve">13081</t>
   </si>
   <si>
-    <t xml:space="preserve">Zacualtipán de Ángeles</t>
-  </si>
-  <si>
     <t xml:space="preserve">13082</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapotlán de Juárez</t>
-  </si>
-  <si>
     <t xml:space="preserve">13083</t>
   </si>
   <si>
-    <t xml:space="preserve">Zempoala</t>
-  </si>
-  <si>
     <t xml:space="preserve">13084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimapán</t>
   </si>
 </sst>
 </file>
@@ -887,701 +632,557 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
-      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4"/>
+      <c r="D4"/>
+      <c r="E4" t="n">
+        <v>197</v>
+      </c>
       <c r="F4" t="n">
-        <v>197</v>
-      </c>
-      <c r="G4" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
-      <c r="G5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>145</v>
+      </c>
       <c r="F9" t="n">
-        <v>145</v>
-      </c>
-      <c r="G9" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
-      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13"/>
+        <v>17</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>25</v>
+      </c>
       <c r="F13" t="n">
-        <v>25</v>
-      </c>
-      <c r="G13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
-      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
-      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
-      <c r="G18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
-      <c r="G19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
-      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
-      <c r="G21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
-      <c r="G24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
-      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>56</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
-      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
-      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30"/>
+      <c r="D30"/>
+      <c r="E30" t="n">
+        <v>89</v>
+      </c>
       <c r="F30" t="n">
-        <v>89</v>
-      </c>
-      <c r="G30" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31"/>
+      <c r="D31"/>
+      <c r="E31" t="n">
+        <v>175</v>
+      </c>
       <c r="F31" t="n">
-        <v>175</v>
-      </c>
-      <c r="G31" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32"/>
+      <c r="D32"/>
+      <c r="E32" t="n">
+        <v>73</v>
+      </c>
       <c r="F32" t="n">
-        <v>73</v>
-      </c>
-      <c r="G32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
+        <v>37</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>274</v>
+      </c>
       <c r="F33" t="n">
-        <v>274</v>
-      </c>
-      <c r="G33" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
-      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
+        <v>46</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42"/>
+      <c r="D42"/>
+      <c r="E42" t="n">
+        <v>109</v>
+      </c>
       <c r="F42" t="n">
-        <v>109</v>
-      </c>
-      <c r="G42" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
+        <v>47</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43"/>
+      <c r="D43"/>
+      <c r="E43" t="n">
+        <v>157</v>
+      </c>
       <c r="F43" t="n">
-        <v>157</v>
-      </c>
-      <c r="G43" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-      <c r="G44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
-      <c r="G45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-      <c r="G46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-      <c r="G47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1590,518 +1191,407 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>1836</v>
       </c>
       <c r="F49" t="n">
-        <v>1836</v>
-      </c>
-      <c r="G49" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
       <c r="E50"/>
       <c r="F50"/>
-      <c r="G50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
-      <c r="G51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
-      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
-      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
-      <c r="G55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
-      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>118</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
-      <c r="G57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
-      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
-      <c r="G59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" t="s">
-        <v>124</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
-      <c r="G60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61"/>
       <c r="D61"/>
-      <c r="E61"/>
+      <c r="E61" t="n">
+        <v>129</v>
+      </c>
       <c r="F61" t="n">
-        <v>129</v>
-      </c>
-      <c r="G61" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>128</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" t="s">
-        <v>130</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
-      <c r="G63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>132</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" t="s">
-        <v>134</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
-      <c r="G65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" t="s">
-        <v>136</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
-      <c r="G66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" t="s">
-        <v>138</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
-      <c r="G67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s">
-        <v>140</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
-      <c r="G68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" t="s">
-        <v>142</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
-      <c r="G69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70"/>
-      <c r="D70" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70"/>
+        <v>74</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70" t="n">
+        <v>15</v>
+      </c>
       <c r="F70" t="n">
-        <v>15</v>
-      </c>
-      <c r="G70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" t="s">
-        <v>146</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="G71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B72" t="s">
-        <v>148</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="G72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>149</v>
-      </c>
-      <c r="B73" t="s">
-        <v>150</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="G73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" t="s">
-        <v>152</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
-      <c r="G74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" t="s">
-        <v>154</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
-      <c r="G75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" t="s">
-        <v>156</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76"/>
-      <c r="G76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" t="s">
-        <v>158</v>
+        <v>81</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
-      <c r="D77" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77"/>
+      <c r="D77"/>
+      <c r="E77" t="n">
+        <v>585</v>
+      </c>
       <c r="F77" t="n">
-        <v>585</v>
-      </c>
-      <c r="G77" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>159</v>
-      </c>
-      <c r="B78" t="s">
-        <v>160</v>
+        <v>82</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78"/>
+      <c r="D78"/>
+      <c r="E78" t="n">
+        <v>585</v>
+      </c>
       <c r="F78" t="n">
-        <v>585</v>
-      </c>
-      <c r="G78" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>161</v>
-      </c>
-      <c r="B79" t="s">
-        <v>162</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
-      <c r="G79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>163</v>
-      </c>
-      <c r="B80" t="s">
-        <v>164</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80"/>
-      <c r="G80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>165</v>
-      </c>
-      <c r="B81" t="s">
-        <v>166</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81"/>
-      <c r="G81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B82" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82"/>
+        <v>86</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82" t="n">
+        <v>8</v>
+      </c>
       <c r="F82" t="n">
-        <v>8</v>
-      </c>
-      <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" t="s">
-        <v>170</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83"/>
-      <c r="G83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>171</v>
-      </c>
-      <c r="B84" t="s">
-        <v>172</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
-      <c r="G84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>173</v>
-      </c>
-      <c r="B85" t="s">
-        <v>174</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85"/>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
       <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
         <v>0</v>
       </c>
     </row>
